--- a/productos/data/productos.xlsx
+++ b/productos/data/productos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Callamullo\Documents\Visual Studio Code\ecommerce-generico\productos\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Callamullo\Documents\Visual Studio Code\E-Commerce-Generico\productos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9521867-749E-4D18-9429-8DA086A6CF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A83957-512B-4EC4-8D36-B2802D8A7620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -691,7 +691,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,7 +907,9 @@
       <c r="H6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>20</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" t="s">
         <v>59</v>
@@ -972,7 +974,9 @@
       <c r="H8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7">
+        <v>20</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" t="s">
         <v>62</v>
@@ -1040,7 +1044,9 @@
       <c r="H10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>20</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" t="s">
         <v>66</v>

--- a/productos/data/productos.xlsx
+++ b/productos/data/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Callamullo\Documents\Visual Studio Code\E-Commerce-Generico\productos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A83957-512B-4EC4-8D36-B2802D8A7620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4077BAA5-F6AC-4456-8695-B2D599DD7CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>Cables y Adaptadores</t>
-  </si>
-  <si>
-    <t>Otro</t>
   </si>
   <si>
     <t>Cable HDMI 5mts</t>
@@ -690,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +703,7 @@
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -742,10 +739,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -759,7 +756,7 @@
         <v>1000</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="8">
         <v>2</v>
@@ -778,10 +775,10 @@
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -795,7 +792,7 @@
         <v>1500</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="7">
         <v>3</v>
@@ -814,10 +811,10 @@
       </c>
       <c r="J3" s="7"/>
       <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
         <v>55</v>
-      </c>
-      <c r="L3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -831,7 +828,7 @@
         <v>1000</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="7">
         <v>5</v>
@@ -848,7 +845,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -862,7 +859,7 @@
         <v>1500</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="7">
         <v>7</v>
@@ -879,7 +876,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -893,7 +890,7 @@
         <v>3000</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="7">
         <v>2</v>
@@ -912,7 +909,7 @@
       </c>
       <c r="J6" s="7"/>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -926,7 +923,7 @@
         <v>3000</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="7">
         <v>3</v>
@@ -943,10 +940,10 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" t="s">
         <v>60</v>
-      </c>
-      <c r="L7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -960,7 +957,7 @@
         <v>2500</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="7">
         <v>5</v>
@@ -979,10 +976,10 @@
       </c>
       <c r="J8" s="7"/>
       <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" t="s">
         <v>62</v>
-      </c>
-      <c r="L8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -996,7 +993,7 @@
         <v>3000</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="7">
         <v>7</v>
@@ -1013,10 +1010,10 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" t="s">
         <v>64</v>
-      </c>
-      <c r="L9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1030,7 +1027,7 @@
         <v>15000</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="7">
         <v>2</v>
@@ -1049,10 +1046,10 @@
       </c>
       <c r="J10" s="7"/>
       <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1066,7 +1063,7 @@
         <v>15000</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="7">
         <v>3</v>
@@ -1083,7 +1080,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1097,7 +1094,7 @@
         <v>5000</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="7">
         <v>5</v>
@@ -1114,7 +1111,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1128,7 +1125,7 @@
         <v>10000</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="7">
         <v>7</v>
@@ -1145,10 +1142,10 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" t="s">
         <v>70</v>
-      </c>
-      <c r="L13" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1162,7 +1159,7 @@
         <v>30000</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="7">
         <v>2</v>
@@ -1179,10 +1176,10 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1196,7 +1193,7 @@
         <v>30000</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="7">
         <v>3</v>
@@ -1213,7 +1210,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1227,7 +1224,7 @@
         <v>50000</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="7">
         <v>5</v>
@@ -1244,10 +1241,10 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" t="s">
         <v>75</v>
-      </c>
-      <c r="L16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1261,7 +1258,7 @@
         <v>60000</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="7">
         <v>7</v>
@@ -1278,7 +1275,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1292,7 +1289,7 @@
         <v>5000</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="7">
         <v>2</v>
@@ -1301,16 +1298,14 @@
         <v>44</v>
       </c>
       <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" t="s">
         <v>78</v>
-      </c>
-      <c r="L18" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1318,13 +1313,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="7">
         <v>3000</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="7">
         <v>3</v>
@@ -1333,16 +1328,14 @@
         <v>44</v>
       </c>
       <c r="G19" s="7"/>
-      <c r="H19" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" t="s">
         <v>80</v>
-      </c>
-      <c r="L19" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1350,31 +1343,29 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>5000</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="7">
         <v>5</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1382,28 +1373,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="7">
         <v>5000</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="7">
         <v>7</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
